--- a/1 Hardware/DAQ Device Board Bringup/DAQ device board bringup.xlsx
+++ b/1 Hardware/DAQ Device Board Bringup/DAQ device board bringup.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Desktop\ecse478_honours_thesis\1 Hardware\DAQ Device Board Bringup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64E55232-4D62-4F9B-9F92-2C2923F5A603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9F04E0-1F2A-48D9-A813-1BB1D456EF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{01CEF080-0178-40FF-A3F5-B860AACE5C7D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{01CEF080-0178-40FF-A3F5-B860AACE5C7D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Power rails" sheetId="1" r:id="rId1"/>
+    <sheet name="HS SE AA Filter" sheetId="2" r:id="rId2"/>
+    <sheet name="HS SE In-Out Full Chain" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +37,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jasper Yun</author>
+  </authors>
+  <commentList>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{A92924C5-084A-4B83-BDE3-4665B4701402}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jasper Yun:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Measured output of op amp before ADC
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
   <si>
     <t>DAQ Device Power Rail Checking</t>
   </si>
@@ -77,18 +114,12 @@
     <t>U37</t>
   </si>
   <si>
-    <t>-- Teensy not pop, no 3v3 available</t>
-  </si>
-  <si>
     <t>fixed by changing 33r on output of gain stage to 10k because I don't have many 100R</t>
   </si>
   <si>
     <t>repeat sans teensy after changing 33R to 10k</t>
   </si>
   <si>
-    <t>current consumption: around 1.1A</t>
-  </si>
-  <si>
     <t>current consumption: 0.201A</t>
   </si>
   <si>
@@ -111,16 +142,149 @@
   </si>
   <si>
     <t>will need to redo test when power comes from USB because USB is noisier</t>
+  </si>
+  <si>
+    <t>Hardware output sinusoid</t>
+  </si>
+  <si>
+    <t>In+ Freq (Hz)</t>
+  </si>
+  <si>
+    <t>Input Vpp (V)</t>
+  </si>
+  <si>
+    <t>Output mean (V)</t>
+  </si>
+  <si>
+    <t>Output freq (Hz)</t>
+  </si>
+  <si>
+    <t>Output Vpp (V)</t>
+  </si>
+  <si>
+    <t>Output / Input (V/V)</t>
+  </si>
+  <si>
+    <t>Output / Input (dB)</t>
+  </si>
+  <si>
+    <t>Input+ sinusoid (1Vpp) (remember there is a 10k+10k v div on input)</t>
+  </si>
+  <si>
+    <t>Filter In mean (oscope) (V)</t>
+  </si>
+  <si>
+    <t>Input is a sinusoid from signal generator to AH1 (2.00v offset, 2.00vpp)</t>
+  </si>
+  <si>
+    <t>both inputs bw-lim to 20MHz</t>
+  </si>
+  <si>
+    <t>10x probes</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>acquisition in averaging (1024 samples)</t>
+  </si>
+  <si>
+    <t>LTSpice sim results</t>
+  </si>
+  <si>
+    <t>Freq (Hz)</t>
+  </si>
+  <si>
+    <t>Mag (dB)</t>
+  </si>
+  <si>
+    <t>input on TP55</t>
+  </si>
+  <si>
+    <t>output on TP44</t>
+  </si>
+  <si>
+    <t>designators according to rev 1</t>
+  </si>
+  <si>
+    <t>Input at term block, output at TP42 (output of gain stage)</t>
+  </si>
+  <si>
+    <t>Input mean (V)</t>
+  </si>
+  <si>
+    <t>oscilloscope: Siglent SDS 1202x-e</t>
+  </si>
+  <si>
+    <t>G = 1V/V config</t>
+  </si>
+  <si>
+    <t>G = 10V/V config</t>
+  </si>
+  <si>
+    <t>G = 50V/V config</t>
+  </si>
+  <si>
+    <t>G = 100V/V config</t>
+  </si>
+  <si>
+    <t>Test op amp gain stage only -- input probe on op amp input TP44, output probe on TP42</t>
+  </si>
+  <si>
+    <t>changed input probe to 1x to reduce noise</t>
+  </si>
+  <si>
+    <t>very noisy input</t>
+  </si>
+  <si>
+    <t>PP gain (V)</t>
+  </si>
+  <si>
+    <t>Gain (V/V)</t>
+  </si>
+  <si>
+    <t>5V usb</t>
+  </si>
+  <si>
+    <t>powered by xps13, with charger plugged in</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>-- Teensy not populated, no 3v3 available</t>
+  </si>
+  <si>
+    <t>current consumption: around 1.1A -- there must be a hardware problem somewhere</t>
+  </si>
+  <si>
+    <t>High-Speed Single-Ended Analog Input Anti-Aliasing Filter Magnitude Response</t>
+  </si>
+  <si>
+    <t>10x inputs, DC coupled, averaging 1024 samples, input sine wave at 1kHz for all tests</t>
+  </si>
+  <si>
+    <t>Goal is to measure gain and offset of full signal chain</t>
+  </si>
+  <si>
+    <t>Note: this test done after full chain test (on left) but same setup, same day, same sig gen settings</t>
+  </si>
+  <si>
+    <t>High-Speed Single-Ended Analog Input Full Signal Chain Tests</t>
+  </si>
+  <si>
+    <t>PP gain = Vpp_out / Vpp_in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +295,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -157,11 +367,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -177,6 +400,1355 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11576511718397139"/>
+          <c:y val="4.9518988777586363E-2"/>
+          <c:w val="0.80967603011286748"/>
+          <c:h val="0.8522331016185849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Measured Response</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HS SE AA Filter'!$A$6:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HS SE AA Filter'!$H$6:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16545051931979715</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33411387005705429</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24937281119196061</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40786317283686602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72090208369278663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0969733601469003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96609359149109908</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81235701816528172</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49647167450064289</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.1720034352383516</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.45449628907047823</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.97210666867002726</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.5225281416952865</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.0237762197466274</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-7.6246863033837</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-18.588378514285854</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-30.514531763063278</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-45.85193656254237</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-49.045953419892605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-49D7-498B-8F7D-58BBB0B79B5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ltspice sim</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HS SE AA Filter'!$J$7:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HS SE AA Filter'!$K$7:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.10100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.39900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.57599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.88300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.556</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.8779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.4129999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.4670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-22.902999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-36.156999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-54.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-68.852000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-49D7-498B-8F7D-58BBB0B79B5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="261014336"/>
+        <c:axId val="261000608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="261014336"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="200000"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Frequency (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261000608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="261000608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Magnitude</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Reponse (dB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.6283918697270074E-3"/>
+              <c:y val="0.23912348132312156"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261014336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28128439966378116"/>
+          <c:y val="0.4735518265665653"/>
+          <c:w val="0.28734422581985669"/>
+          <c:h val="0.1543455739454612"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314756</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>39985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>121265</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{623294DD-8977-2FAC-030D-6FF57CD542B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,10 +2048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DE0D1B-8F99-4044-9B68-FD1C725DECCE}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView zoomScale="77" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,16 +2061,16 @@
     <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
@@ -550,16 +2122,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -574,13 +2146,13 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -591,10 +2163,10 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -639,7 +2211,7 @@
         <v>21.28</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -653,7 +2225,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -670,7 +2242,7 @@
         <v>3.2469999999999999</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -684,27 +2256,2040 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
         <v>21</v>
-      </c>
-      <c r="E25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>22</v>
+      <c r="A28" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30">
+        <v>5.1120000000000001</v>
+      </c>
+      <c r="C30">
+        <v>146</v>
+      </c>
+      <c r="D30">
+        <v>22.73</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0E1C6C-D0F9-4BA3-802B-3F79FD418A00}">
+  <dimension ref="A1:K36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="18.77734375" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1.04</v>
+      </c>
+      <c r="D6">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>1.04</v>
+      </c>
+      <c r="G6">
+        <f>F6/C6</f>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f>20*LOG10(G6)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1.02</v>
+      </c>
+      <c r="D7">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>1.02</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G27" si="0">F7/C7</f>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H27" si="1">20*LOG10(G7)</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1.04</v>
+      </c>
+      <c r="D8">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>1.04</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.04</v>
+      </c>
+      <c r="D9">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>1.06</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1.0192307692307692</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0.16545051931979715</v>
+      </c>
+      <c r="J9">
+        <v>50</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>200</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1.02</v>
+      </c>
+      <c r="D10">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="E10">
+        <v>199.98</v>
+      </c>
+      <c r="F10">
+        <v>1.06</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1.0392156862745099</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0.33411387005705429</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>500</v>
+      </c>
+      <c r="B11">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="C11">
+        <v>1.03</v>
+      </c>
+      <c r="D11">
+        <v>0.98</v>
+      </c>
+      <c r="E11">
+        <v>499.99</v>
+      </c>
+      <c r="F11">
+        <v>1.06</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>1.029126213592233</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0.24937281119196061</v>
+      </c>
+      <c r="J11">
+        <v>200</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>0.996</v>
+      </c>
+      <c r="C12">
+        <v>1.04</v>
+      </c>
+      <c r="D12">
+        <v>0.98</v>
+      </c>
+      <c r="E12">
+        <v>1000</v>
+      </c>
+      <c r="F12">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1.0480769230769231</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0.40786317283686602</v>
+      </c>
+      <c r="J12">
+        <v>500</v>
+      </c>
+      <c r="K12">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2000</v>
+      </c>
+      <c r="B13">
+        <v>0.996</v>
+      </c>
+      <c r="C13">
+        <v>1.04</v>
+      </c>
+      <c r="D13">
+        <v>0.98</v>
+      </c>
+      <c r="E13">
+        <v>2000</v>
+      </c>
+      <c r="F13">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1.0865384615384615</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0.72090208369278663</v>
+      </c>
+      <c r="J13">
+        <v>1000</v>
+      </c>
+      <c r="K13">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>5000</v>
+      </c>
+      <c r="B14">
+        <v>0.996</v>
+      </c>
+      <c r="C14">
+        <v>1.04</v>
+      </c>
+      <c r="D14">
+        <v>0.98</v>
+      </c>
+      <c r="E14">
+        <v>5000</v>
+      </c>
+      <c r="F14">
+        <v>1.18</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>1.1346153846153846</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>1.0969733601469003</v>
+      </c>
+      <c r="J14">
+        <v>2000</v>
+      </c>
+      <c r="K14">
+        <v>-1.6E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10000</v>
+      </c>
+      <c r="B15">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="C15">
+        <v>1.02</v>
+      </c>
+      <c r="D15">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="E15">
+        <v>10000</v>
+      </c>
+      <c r="F15">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>1.1176470588235292</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0.96609359149109908</v>
+      </c>
+      <c r="J15">
+        <v>5000</v>
+      </c>
+      <c r="K15">
+        <v>-0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12000</v>
+      </c>
+      <c r="B16">
+        <v>0.997</v>
+      </c>
+      <c r="C16">
+        <v>1.02</v>
+      </c>
+      <c r="D16">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="E16">
+        <v>12000</v>
+      </c>
+      <c r="F16">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1.0980392156862746</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0.81235701816528172</v>
+      </c>
+      <c r="J16">
+        <v>10000</v>
+      </c>
+      <c r="K16">
+        <v>-0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15000</v>
+      </c>
+      <c r="B17">
+        <v>0.997</v>
+      </c>
+      <c r="C17">
+        <v>1.02</v>
+      </c>
+      <c r="D17">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="E17">
+        <v>15000</v>
+      </c>
+      <c r="F17">
+        <v>1.08</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1.0588235294117647</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>0.49647167450064289</v>
+      </c>
+      <c r="J17">
+        <v>12000</v>
+      </c>
+      <c r="K17">
+        <v>-0.57599999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>20000</v>
+      </c>
+      <c r="B18">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="C18">
+        <v>1.02</v>
+      </c>
+      <c r="D18">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="E18">
+        <v>20000</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0.98039215686274506</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>-0.1720034352383516</v>
+      </c>
+      <c r="J18">
+        <v>15000</v>
+      </c>
+      <c r="K18">
+        <v>-0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>22000</v>
+      </c>
+      <c r="B19">
+        <v>0.996</v>
+      </c>
+      <c r="C19">
+        <v>1.02</v>
+      </c>
+      <c r="D19">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="E19">
+        <v>22000</v>
+      </c>
+      <c r="F19">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0.94901960784313721</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>-0.45449628907047823</v>
+      </c>
+      <c r="J19">
+        <v>20000</v>
+      </c>
+      <c r="K19">
+        <v>-1.556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>25000</v>
+      </c>
+      <c r="B20">
+        <v>0.995</v>
+      </c>
+      <c r="C20">
+        <v>1.02</v>
+      </c>
+      <c r="D20">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="E20">
+        <v>25000</v>
+      </c>
+      <c r="F20">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0.89411764705882357</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>-0.97210666867002726</v>
+      </c>
+      <c r="J20">
+        <v>22000</v>
+      </c>
+      <c r="K20">
+        <v>-1.8779999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>28000</v>
+      </c>
+      <c r="B21">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="C21">
+        <v>1.02</v>
+      </c>
+      <c r="D21">
+        <v>0.995</v>
+      </c>
+      <c r="F21">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0.83921568627450982</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>-1.5225281416952865</v>
+      </c>
+      <c r="J21">
+        <v>25000</v>
+      </c>
+      <c r="K21">
+        <v>-2.4129999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>30000</v>
+      </c>
+      <c r="B22">
+        <v>0.998</v>
+      </c>
+      <c r="C22">
+        <v>1.02</v>
+      </c>
+      <c r="D22">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="E22">
+        <v>30000</v>
+      </c>
+      <c r="F22">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0.79215686274509811</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>-2.0237762197466274</v>
+      </c>
+      <c r="J22">
+        <v>30000</v>
+      </c>
+      <c r="K22">
+        <v>-3.4670000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>50000</v>
+      </c>
+      <c r="B23">
+        <v>0.995</v>
+      </c>
+      <c r="C23">
+        <v>1.02</v>
+      </c>
+      <c r="D23">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="E23">
+        <v>50000</v>
+      </c>
+      <c r="F23">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0.41568627450980389</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>-7.6246863033837</v>
+      </c>
+      <c r="J23">
+        <v>50000</v>
+      </c>
+      <c r="K23">
+        <v>-10.199999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>75000</v>
+      </c>
+      <c r="B24">
+        <v>0.997</v>
+      </c>
+      <c r="C24">
+        <v>1.02</v>
+      </c>
+      <c r="D24">
+        <v>0.99</v>
+      </c>
+      <c r="E24">
+        <v>75000</v>
+      </c>
+      <c r="F24">
+        <v>0.12</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>-18.588378514285854</v>
+      </c>
+      <c r="J24">
+        <v>75000</v>
+      </c>
+      <c r="K24">
+        <v>-22.902999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>100000</v>
+      </c>
+      <c r="B25">
+        <v>0.995</v>
+      </c>
+      <c r="C25">
+        <v>1.02</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25">
+        <v>100000</v>
+      </c>
+      <c r="F25">
+        <v>3.04E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>2.9803921568627451E-2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>-30.514531763063278</v>
+      </c>
+      <c r="J25">
+        <v>100000</v>
+      </c>
+      <c r="K25">
+        <v>-36.156999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>150000</v>
+      </c>
+      <c r="B26">
+        <v>0.996</v>
+      </c>
+      <c r="C26">
+        <v>1.02</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>5.0980392156862739E-3</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>-45.85193656254237</v>
+      </c>
+      <c r="J26">
+        <v>150000</v>
+      </c>
+      <c r="K26">
+        <v>-54.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>200000</v>
+      </c>
+      <c r="B27">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="C27">
+        <v>1.02</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>3.529411764705882E-3</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>-49.045953419892605</v>
+      </c>
+      <c r="J27">
+        <v>200000</v>
+      </c>
+      <c r="K27">
+        <v>-68.852000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="3" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1ED2F4-DD91-4662-8A9D-01B38A383225}">
+  <dimension ref="A1:O44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1"/>
+    <col min="12" max="12" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G4" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0.72</v>
+      </c>
+      <c r="C8">
+        <v>0.97070999999999996</v>
+      </c>
+      <c r="D8">
+        <v>0.38</v>
+      </c>
+      <c r="E8">
+        <f>D8/B8</f>
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.98663999999999996</v>
+      </c>
+      <c r="J8">
+        <v>0.376</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K13" si="0">J8/H8</f>
+        <v>1.0217391304347827</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1.02</v>
+      </c>
+      <c r="C9">
+        <v>0.97033000000000003</v>
+      </c>
+      <c r="D9">
+        <v>0.54</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E13" si="1">D9/B9</f>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="I9">
+        <v>0.98624999999999996</v>
+      </c>
+      <c r="J9">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>1.0151515151515151</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1.97</v>
+      </c>
+      <c r="B10">
+        <v>2.5</v>
+      </c>
+      <c r="C10">
+        <v>0.95638000000000001</v>
+      </c>
+      <c r="D10">
+        <v>1.32</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10">
+        <v>0.99351999999999996</v>
+      </c>
+      <c r="H10">
+        <v>1.24</v>
+      </c>
+      <c r="I10">
+        <v>0.95821999999999996</v>
+      </c>
+      <c r="J10">
+        <v>1.32</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>1.0645161290322582</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="B11">
+        <v>0.7</v>
+      </c>
+      <c r="C11">
+        <v>1.23</v>
+      </c>
+      <c r="D11">
+        <v>0.38</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.54285714285714293</v>
+      </c>
+      <c r="G11">
+        <v>1.25</v>
+      </c>
+      <c r="H11">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="I11">
+        <v>1.24</v>
+      </c>
+      <c r="J11">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>1.0454545454545454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="B12">
+        <v>1.02</v>
+      </c>
+      <c r="C12">
+        <v>1.23</v>
+      </c>
+      <c r="D12">
+        <v>0.54</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="G12">
+        <v>1.25</v>
+      </c>
+      <c r="H12">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="I12">
+        <v>1.24</v>
+      </c>
+      <c r="J12">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>1.0625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="B13">
+        <v>2.5</v>
+      </c>
+      <c r="C13">
+        <v>1.22</v>
+      </c>
+      <c r="D13">
+        <v>1.32</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="G13">
+        <v>1.25</v>
+      </c>
+      <c r="H13">
+        <v>1.26</v>
+      </c>
+      <c r="I13">
+        <v>1.22</v>
+      </c>
+      <c r="J13">
+        <v>1.32</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>1.0476190476190477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14">
+        <f>AVERAGE(K8:K13)</f>
+        <v>1.0428300612820249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>9.035E-2</v>
+      </c>
+      <c r="B18">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="C18">
+        <v>0.42598000000000003</v>
+      </c>
+      <c r="D18">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="E18">
+        <f>D18/B18</f>
+        <v>5.2727272727272725</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18">
+        <v>4.2959999999999998E-2</v>
+      </c>
+      <c r="H18">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="I18">
+        <v>0.43685000000000002</v>
+      </c>
+      <c r="J18">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="K18">
+        <f>J18/H18</f>
+        <v>10.238095238095237</v>
+      </c>
+      <c r="L18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>9.0749999999999997E-2</v>
+      </c>
+      <c r="B19">
+        <v>0.104</v>
+      </c>
+      <c r="C19">
+        <v>0.42873</v>
+      </c>
+      <c r="D19">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E23" si="2">D19/B19</f>
+        <v>5.0769230769230775</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19">
+        <v>4.3240000000000001E-2</v>
+      </c>
+      <c r="H19">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I19">
+        <v>0.43917</v>
+      </c>
+      <c r="J19">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19:K20" si="3">J19/H19</f>
+        <v>10.307692307692308</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>8.7870000000000004E-2</v>
+      </c>
+      <c r="B20">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.43067</v>
+      </c>
+      <c r="D20">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>5.052631578947369</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20">
+        <v>4.3369999999999999E-2</v>
+      </c>
+      <c r="H20">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="I20">
+        <v>0.44074000000000002</v>
+      </c>
+      <c r="J20">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>10.212765957446809</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.17921000000000001</v>
+      </c>
+      <c r="B21">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="C21">
+        <v>0.88766999999999996</v>
+      </c>
+      <c r="D21">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="E21">
+        <f>D21/B21</f>
+        <v>5.1940298507462677</v>
+      </c>
+      <c r="G21">
+        <v>7.9869999999999997E-2</v>
+      </c>
+      <c r="H21">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I21">
+        <v>0.80074000000000001</v>
+      </c>
+      <c r="J21">
+        <v>0.68</v>
+      </c>
+      <c r="K21">
+        <f>J21/H21</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.17971000000000001</v>
+      </c>
+      <c r="B22">
+        <v>0.104</v>
+      </c>
+      <c r="C22">
+        <v>0.89071</v>
+      </c>
+      <c r="D22">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="E22">
+        <f>D22/B22</f>
+        <v>5.1538461538461542</v>
+      </c>
+      <c r="G22">
+        <v>8.0210000000000004E-2</v>
+      </c>
+      <c r="H22">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I22">
+        <v>0.80345</v>
+      </c>
+      <c r="J22">
+        <v>0.54</v>
+      </c>
+      <c r="K22">
+        <f>J22/H22</f>
+        <v>10.384615384615385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.18001</v>
+      </c>
+      <c r="B23">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.89244000000000001</v>
+      </c>
+      <c r="D23">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>5.1891891891891895</v>
+      </c>
+      <c r="G23">
+        <v>8.0269999999999994E-2</v>
+      </c>
+      <c r="H23">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I23">
+        <v>0.80584999999999996</v>
+      </c>
+      <c r="J23">
+        <v>0.38</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23" si="4">J23/H23</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24">
+        <f>AVERAGE(K18:K23)</f>
+        <v>10.190528147974957</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>8.9069999999999996E-2</v>
+      </c>
+      <c r="B28">
+        <v>0.124</v>
+      </c>
+      <c r="C28">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D28">
+        <v>3.16</v>
+      </c>
+      <c r="E28">
+        <f>D28/B28</f>
+        <v>25.483870967741936</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28">
+        <v>4.3290000000000002E-2</v>
+      </c>
+      <c r="H28">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I28">
+        <v>2.21</v>
+      </c>
+      <c r="J28">
+        <v>3.08</v>
+      </c>
+      <c r="K28">
+        <f>J28/H28</f>
+        <v>49.677419354838712</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>8.9870000000000005E-2</v>
+      </c>
+      <c r="B29">
+        <v>0.104</v>
+      </c>
+      <c r="C29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D29">
+        <v>2.64</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:E30" si="5">D29/B29</f>
+        <v>25.384615384615387</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29">
+        <v>4.3430000000000003E-2</v>
+      </c>
+      <c r="H29">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I29">
+        <v>2.23</v>
+      </c>
+      <c r="J29">
+        <v>2.56</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ref="K29:K30" si="6">J29/H29</f>
+        <v>49.230769230769234</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>9.0270000000000003E-2</v>
+      </c>
+      <c r="B30">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C30">
+        <v>2.21</v>
+      </c>
+      <c r="D30">
+        <v>2.12</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="5"/>
+        <v>25.238095238095237</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30">
+        <v>4.367E-2</v>
+      </c>
+      <c r="H30">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I30">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J30">
+        <v>2.08</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="6"/>
+        <v>49.523809523809526</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.12665000000000001</v>
+      </c>
+      <c r="B31">
+        <v>0.126</v>
+      </c>
+      <c r="C31">
+        <v>3.1</v>
+      </c>
+      <c r="D31">
+        <v>3.16</v>
+      </c>
+      <c r="E31">
+        <f>D31/B31</f>
+        <v>25.079365079365079</v>
+      </c>
+      <c r="G31">
+        <v>6.166E-2</v>
+      </c>
+      <c r="H31">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I31">
+        <v>3.11</v>
+      </c>
+      <c r="J31">
+        <v>3.12</v>
+      </c>
+      <c r="K31">
+        <f>J31/H31</f>
+        <v>50.322580645161295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.12709000000000001</v>
+      </c>
+      <c r="B32">
+        <v>0.104</v>
+      </c>
+      <c r="C32">
+        <v>3.11</v>
+      </c>
+      <c r="D32">
+        <v>2.64</v>
+      </c>
+      <c r="E32">
+        <f>D32/B32</f>
+        <v>25.384615384615387</v>
+      </c>
+      <c r="G32">
+        <v>6.1920000000000003E-2</v>
+      </c>
+      <c r="H32">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I32">
+        <v>3.12</v>
+      </c>
+      <c r="J32">
+        <v>2.56</v>
+      </c>
+      <c r="K32">
+        <f>J32/H32</f>
+        <v>49.230769230769234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.12778</v>
+      </c>
+      <c r="B33">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C33">
+        <v>3.12</v>
+      </c>
+      <c r="D33">
+        <v>2.16</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ref="E33" si="7">D33/B33</f>
+        <v>25.714285714285715</v>
+      </c>
+      <c r="G33">
+        <v>6.2019999999999999E-2</v>
+      </c>
+      <c r="H33">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I33">
+        <v>3.13</v>
+      </c>
+      <c r="J33">
+        <v>2.08</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ref="K33" si="8">J33/H33</f>
+        <v>49.523809523809526</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K34">
+        <f>AVERAGE(K28:K33)</f>
+        <v>49.584859584859579</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>6.148E-2</v>
+      </c>
+      <c r="B38">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C38">
+        <v>3.11</v>
+      </c>
+      <c r="D38">
+        <v>4.28</v>
+      </c>
+      <c r="E38">
+        <f>D38/B38</f>
+        <v>50.952380952380949</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38">
+        <v>3.0190000000000002E-2</v>
+      </c>
+      <c r="H38">
+        <v>4.24E-2</v>
+      </c>
+      <c r="I38">
+        <v>3.13</v>
+      </c>
+      <c r="J38">
+        <v>4.28</v>
+      </c>
+      <c r="K38">
+        <f>J38/H38</f>
+        <v>100.9433962264151</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>6.2109999999999999E-2</v>
+      </c>
+      <c r="B39">
+        <v>5.28E-2</v>
+      </c>
+      <c r="C39">
+        <v>3.14</v>
+      </c>
+      <c r="D39">
+        <v>2.68</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:E40" si="9">D39/B39</f>
+        <v>50.757575757575758</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39">
+        <v>3.024E-2</v>
+      </c>
+      <c r="H39">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="I39">
+        <v>3.15</v>
+      </c>
+      <c r="J39">
+        <v>2.64</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ref="K39:K40" si="10">J39/H39</f>
+        <v>99.248120300751893</v>
+      </c>
+      <c r="L39" t="s">
+        <v>53</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>6.1719999999999997E-2</v>
+      </c>
+      <c r="B40">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="C40">
+        <v>3.13</v>
+      </c>
+      <c r="D40">
+        <v>1.08</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="9"/>
+        <v>46.551724137931039</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40">
+        <v>3.0339999999999999E-2</v>
+      </c>
+      <c r="H40">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I40">
+        <v>3.14</v>
+      </c>
+      <c r="J40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="10"/>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4.2889999999999998E-2</v>
+      </c>
+      <c r="B41">
+        <v>8.48E-2</v>
+      </c>
+      <c r="C41">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D41">
+        <v>4.28</v>
+      </c>
+      <c r="E41">
+        <f>D41/B41</f>
+        <v>50.471698113207552</v>
+      </c>
+      <c r="G41">
+        <v>2.0709999999999999E-2</v>
+      </c>
+      <c r="H41">
+        <v>4.24E-2</v>
+      </c>
+      <c r="I41">
+        <v>2.17</v>
+      </c>
+      <c r="J41">
+        <v>4.28</v>
+      </c>
+      <c r="K41">
+        <f>J41/H41</f>
+        <v>100.9433962264151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>4.342E-2</v>
+      </c>
+      <c r="B42">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="C42">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D42">
+        <v>2.68</v>
+      </c>
+      <c r="E42">
+        <f>D42/B42</f>
+        <v>50</v>
+      </c>
+      <c r="G42">
+        <v>2.0990000000000002E-2</v>
+      </c>
+      <c r="H42">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="I42">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J42">
+        <v>2.64</v>
+      </c>
+      <c r="K42">
+        <f>J42/H42</f>
+        <v>98.507462686567166</v>
+      </c>
+      <c r="L42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>4.3209999999999998E-2</v>
+      </c>
+      <c r="B43">
+        <v>2.24E-2</v>
+      </c>
+      <c r="C43">
+        <v>2.19</v>
+      </c>
+      <c r="D43">
+        <v>1.08</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="11">D43/B43</f>
+        <v>48.214285714285715</v>
+      </c>
+      <c r="G43">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="H43">
+        <v>1.0959999999999999E-2</v>
+      </c>
+      <c r="I43">
+        <v>2.19</v>
+      </c>
+      <c r="J43">
+        <v>1.08</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ref="K43" si="12">J43/H43</f>
+        <v>98.540145985401466</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J44" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44">
+        <f>AVERAGE(K38:K43)</f>
+        <v>99.697086904258455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="3" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>